--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,66 +43,72 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
@@ -112,31 +118,31 @@
     <t>thought</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>could</t>
   </si>
   <si>
     <t>product</t>
@@ -145,24 +151,24 @@
     <t>better</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
+    <t>use</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>use</t>
+    <t>buy</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -175,12 +181,12 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -190,12 +196,12 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -205,43 +211,43 @@
     <t>loved</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>play</t>
@@ -605,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -674,13 +680,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -692,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -724,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8620689655172413</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K4">
-        <v>0.8888888888888888</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -766,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -774,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8409090909090909</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -792,19 +798,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>0.8769230769230769</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -816,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -824,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7323943661971831</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -842,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>0.8279569892473119</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L6">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M6">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -866,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -874,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7096774193548387</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="C7">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D7">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -892,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K7">
-        <v>0.765625</v>
+        <v>0.78125</v>
       </c>
       <c r="L7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -916,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -924,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6875</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -942,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K8">
         <v>0.6981132075471698</v>
@@ -995,16 +1001,16 @@
         <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9">
-        <v>0.563845050215208</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="L9">
-        <v>393</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>393</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1016,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>304</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1024,13 +1030,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.631578947368421</v>
+        <v>0.640625</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1042,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K10">
-        <v>0.5507246376811594</v>
+        <v>0.5652797704447633</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1074,13 +1080,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.616504854368932</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C11">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1092,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K11">
-        <v>0.5124481327800829</v>
+        <v>0.479253112033195</v>
       </c>
       <c r="L11">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="M11">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1116,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>235</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1124,13 +1130,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1142,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K12">
-        <v>0.4467213114754098</v>
+        <v>0.4491803278688525</v>
       </c>
       <c r="L12">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="M12">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1166,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1174,13 +1180,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5882352941176471</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C13">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1192,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K13">
-        <v>0.3730886850152905</v>
+        <v>0.3761467889908257</v>
       </c>
       <c r="L13">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M13">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1216,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1224,13 +1230,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5714285714285714</v>
+        <v>0.616504854368932</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1242,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K14">
-        <v>0.3650793650793651</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L14">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="M14">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1266,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1274,13 +1280,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5159420289855072</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C15">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="D15">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1292,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K15">
-        <v>0.3554216867469879</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="L15">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1316,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1324,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.518840579710145</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1342,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K16">
-        <v>0.3333333333333333</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="L16">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1366,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>80</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1374,13 +1380,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4444444444444444</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1392,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K17">
-        <v>0.2109375</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1416,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1424,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4259259259259259</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1442,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K18">
-        <v>0.1904761904761905</v>
+        <v>0.2</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1466,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1474,13 +1480,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4251968503937008</v>
+        <v>0.421875</v>
       </c>
       <c r="C19">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1492,19 +1498,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K19">
-        <v>0.184</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1516,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>102</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1524,13 +1530,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4216867469879518</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1542,19 +1548,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K20">
-        <v>0.1818181818181818</v>
+        <v>0.1875</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1566,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1574,13 +1580,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3791469194312796</v>
+        <v>0.390625</v>
       </c>
       <c r="C21">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1592,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K21">
-        <v>0.1774193548387097</v>
+        <v>0.1847389558232932</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1616,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>153</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1624,7 +1630,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.359375</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C22">
         <v>23</v>
@@ -1642,19 +1648,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K22">
-        <v>0.1606425702811245</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1666,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>209</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1674,13 +1680,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.359375</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C23">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1692,31 +1698,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K23">
-        <v>0.1481156879929886</v>
+        <v>0.1447368421052632</v>
       </c>
       <c r="L23">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M23">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1724,13 +1730,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3263157894736842</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D24">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1742,19 +1748,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K24">
-        <v>0.0855614973262032</v>
+        <v>0.08356545961002786</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1766,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1774,13 +1780,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3258426966292135</v>
+        <v>0.3696682464454976</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1792,31 +1798,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K25">
-        <v>0.07862248213125406</v>
+        <v>0.07219251336898395</v>
       </c>
       <c r="L25">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="N25">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1418</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1824,13 +1830,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2673267326732673</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C26">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1842,31 +1848,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K26">
-        <v>0.07520891364902507</v>
+        <v>0.06827048114434331</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>332</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1874,13 +1880,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2448979591836735</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1892,31 +1898,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K27">
-        <v>0.03861517976031957</v>
+        <v>0.04005340453938585</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N27">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="O27">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1924,13 +1930,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2371134020618557</v>
+        <v>0.2722772277227723</v>
       </c>
       <c r="C28">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D28">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1942,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1950,13 +1956,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2222222222222222</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1968,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>91</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1976,13 +1982,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1994,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>160</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2002,13 +2008,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1811594202898551</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="C31">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D31">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2020,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2028,13 +2034,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1740506329113924</v>
+        <v>0.1677215189873418</v>
       </c>
       <c r="C32">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D32">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2046,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2054,25 +2060,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1671469740634006</v>
+        <v>0.165</v>
       </c>
       <c r="C33">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E33">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>289</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2080,13 +2086,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1617210682492582</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C34">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="D34">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2098,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>565</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2106,13 +2112,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1424050632911392</v>
+        <v>0.1572700296735905</v>
       </c>
       <c r="C35">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="D35">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2124,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>271</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2132,25 +2138,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.130242825607064</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="C36">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D36">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E36">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>394</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2158,13 +2164,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1261682242990654</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2176,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>187</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2184,25 +2190,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1052631578947368</v>
+        <v>0.1343612334801762</v>
       </c>
       <c r="C38">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D38">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E38">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>221</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2210,13 +2216,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1048689138576779</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="C39">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D39">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2228,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>239</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2236,13 +2242,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0779510022271715</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2254,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>414</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2262,13 +2268,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.06868131868131869</v>
+        <v>0.1093117408906883</v>
       </c>
       <c r="C41">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>0.04</v>
@@ -2280,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>339</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2288,25 +2294,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.06765676567656766</v>
+        <v>0.07417582417582418</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D42">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E42">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F42">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>565</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2314,13 +2320,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.06478873239436619</v>
+        <v>0.07126948775055679</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D43">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2332,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>332</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2340,25 +2346,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.03929024081115336</v>
+        <v>0.06760563380281689</v>
       </c>
       <c r="C44">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E44">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>758</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2366,25 +2372,77 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.03369065849923431</v>
+        <v>0.05445544554455446</v>
       </c>
       <c r="C45">
+        <v>33</v>
+      </c>
+      <c r="D45">
+        <v>35</v>
+      </c>
+      <c r="E45">
+        <v>0.06</v>
+      </c>
+      <c r="F45">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.04689480354879594</v>
+      </c>
+      <c r="C46">
+        <v>37</v>
+      </c>
+      <c r="D46">
+        <v>42</v>
+      </c>
+      <c r="E46">
+        <v>0.12</v>
+      </c>
+      <c r="F46">
+        <v>0.88</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.03363914373088685</v>
+      </c>
+      <c r="C47">
         <v>22</v>
       </c>
-      <c r="D45">
-        <v>24</v>
-      </c>
-      <c r="E45">
-        <v>0.08</v>
-      </c>
-      <c r="F45">
-        <v>0.92</v>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>631</v>
+      <c r="D47">
+        <v>23</v>
+      </c>
+      <c r="E47">
+        <v>0.04</v>
+      </c>
+      <c r="F47">
+        <v>0.96</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
